--- a/設計書/プログラムモジュール一覧.xlsx
+++ b/設計書/プログラムモジュール一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\資料\卒業研究\バックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C57BCB-E233-4463-B510-CE57B37948A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97CECB-8607-4F56-A82F-8EA25709D3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18D7FEB1-40F1-4A2B-9BC6-0E986448A945}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PM一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PM一覧!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PM一覧!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="140">
   <si>
     <t>共通情報</t>
     <rPh sb="0" eb="2">
@@ -95,25 +95,25 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cat's</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工程名</t>
@@ -123,14 +123,14 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>システム設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>作成日付</t>
@@ -140,22 +140,22 @@
     <rPh sb="2" eb="4">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ドキュメント名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>バージョン</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>書誌情報</t>
@@ -165,28 +165,25 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>書誌名称</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
       <t>コウシンシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ー</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>更新日付</t>
@@ -196,18 +193,14 @@
     <rPh sb="2" eb="4">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>中項目</t>
@@ -217,28 +210,28 @@
     <rPh sb="1" eb="3">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
       <t>ショウコウモク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー認証機能</t>
@@ -248,63 +241,59 @@
     <rPh sb="6" eb="8">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン機能</t>
     <rPh sb="0" eb="2">
       <t>キノ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F1-1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログインを行う</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログアウト機能</t>
     <rPh sb="0" eb="2">
       <t>キノ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>F1-2</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログアウトを行う</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー（プロフィール）登録機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F2-1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー（プロフィール）登録を行う</t>
     <rPh sb="0" eb="17">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール変更機能</t>
     <rPh sb="0" eb="2">
       <t>ヘn</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F2-2</t>
@@ -314,14 +303,14 @@
     <rPh sb="0" eb="1">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール閲覧機能</t>
     <rPh sb="0" eb="2">
       <t>エツラn</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F2-3</t>
@@ -331,66 +320,66 @@
     <rPh sb="0" eb="2">
       <t>プロフィール</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール削除（退会）</t>
     <rPh sb="0" eb="4">
       <t>プロフィールサクjy</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F2-4</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プロフィール削除を行う</t>
     <rPh sb="0" eb="2">
       <t>サクjy</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板消去機能</t>
     <rPh sb="0" eb="1">
       <t>ケイジバn</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F3−4</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板の投稿の削除を行う</t>
     <rPh sb="0" eb="12">
       <t>ケイジバンサ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板投稿機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F3-1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板投稿を行う</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板閲覧機能</t>
     <rPh sb="0" eb="1">
       <t>ケイジバn</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F3-2</t>
@@ -400,75 +389,48 @@
     <rPh sb="0" eb="1">
       <t>ケイジバn</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>絞込み機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>F3-3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>掲示板のカテゴリー絞込み</t>
     <rPh sb="0" eb="3">
       <t>ケイジバ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>きっかけガチャ機能</t>
     <rPh sb="0" eb="2">
       <t>キノ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ガチャ機能</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>F4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>きっかけガチャの機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>チャット機能</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>チャットを行う機能</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>２段階認証機能</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>２段階認証を行う</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プログラムモジュール一覧</t>
     <rPh sb="10" eb="12">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cat's　プログラムモジュール一覧表</t>
@@ -478,43 +440,43 @@
     <rPh sb="18" eb="19">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cat's　プログラムモジュール一覧</t>
     <rPh sb="16" eb="18">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Cat'sのプログラムモジュールの一覧を示す。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>川口</t>
     <rPh sb="0" eb="2">
       <t>カワグチ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>共通レイアウト</t>
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G0</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>共通のレイアウト（ヘッダー、フッター)を表示する</t>
@@ -524,15 +486,15 @@
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ログイン画面を表示する</t>
@@ -542,7 +504,7 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>認証コード送信</t>
@@ -552,11 +514,11 @@
     <rPh sb="5" eb="7">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G2-1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>認証コード送信画面を表示する</t>
@@ -572,7 +534,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>認証コード承認</t>
@@ -582,7 +544,7 @@
     <rPh sb="5" eb="7">
       <t>ショウニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G2-2</t>
@@ -601,7 +563,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>会員登録</t>
@@ -611,7 +573,7 @@
     <rPh sb="2" eb="4">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G2-3</t>
@@ -630,15 +592,15 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ホーム</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G3</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ホーム画面を表示する</t>
@@ -648,18 +610,18 @@
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>掲示板</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G4-1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>掲示板画面を表示する</t>
@@ -669,7 +631,7 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>掲示板投稿</t>
@@ -679,11 +641,11 @@
     <rPh sb="3" eb="5">
       <t>トウコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G4-2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>掲示板の投稿フォームを表示する</t>
@@ -696,14 +658,14 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>掲示板コメント</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G4-3</t>
@@ -719,15 +681,15 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>きっかけガチャ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G5</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>きっかけガチャ画面を表示する</t>
@@ -737,18 +699,18 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チャット選択</t>
     <rPh sb="4" eb="6">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G6-1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チャット選択画面を表示する</t>
@@ -761,15 +723,15 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チャット</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G6-2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>チャット画面を表示する</t>
@@ -779,18 +741,18 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール閲覧</t>
     <rPh sb="6" eb="8">
       <t>エツラン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G6-3</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>プロフィール閲覧画面を表示する</t>
@@ -803,15 +765,15 @@
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>マイページ</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G7-1</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>マイページ画面を表示する</t>
@@ -821,18 +783,18 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>マイページ変更</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>G7-2</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>マイページ変更画面を表示する</t>
@@ -845,7 +807,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>画面</t>
@@ -859,35 +821,35 @@
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>栗山</t>
     <rPh sb="0" eb="2">
       <t>クリヤマ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>吉原</t>
     <rPh sb="0" eb="2">
       <t>ヨシハラ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>江越</t>
     <rPh sb="0" eb="2">
       <t>エゴシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>小村</t>
     <rPh sb="0" eb="2">
       <t>コムラ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>F3-4</t>
@@ -903,9 +865,184 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>掲示板のコメント</t>
+    <t>チャット選択機能</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F5-1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F5-2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チャットの選択を行う機能</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログインボーナス機能</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>F1-2</t>
+  </si>
+  <si>
+    <t>F1-3</t>
+  </si>
+  <si>
+    <t>ログインした際のポイントを付与する機能</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>認証メール送信機能</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>認証メール承認機能</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F6-1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F6-2</t>
+  </si>
+  <si>
+    <t>ワンタイムパスワードをメールで送信する機能</t>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ワンタイムパスワードの認証を行う機能</t>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像アップロード機能</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F2-5</t>
+  </si>
+  <si>
+    <t>アイコン画像をアップロードする機能</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ガチャリクエスト送信機能</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ガチャリクエスト受信機能</t>
+    <rPh sb="8" eb="10">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F4-1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F4-2</t>
+  </si>
+  <si>
+    <t>ガチャでリクエストを送信する機能</t>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ガチャのリクエストを受信する機能</t>
+    <rPh sb="10" eb="12">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板内でのコメント機能</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -914,7 +1051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,18 +1080,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1123,25 +1248,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1149,87 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1547,801 +1672,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6343BE-CA9B-4AB2-BAA2-C8FEF23D0ED7}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="51" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.9140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.08203125" style="5"/>
-    <col min="5" max="5" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.58203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.08203125" style="5"/>
+    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" style="3"/>
+    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.58203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="33"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="34"/>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="34"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="29"/>
+      <c r="B13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="29"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="29"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="29"/>
+      <c r="B18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="29"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="29"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="29"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="29"/>
+      <c r="B23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="29"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="29"/>
+      <c r="B25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="30"/>
+      <c r="B27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="12"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="13">
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1"/>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1"/>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="F31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="G31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" ht="23" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="30" t="s">
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="D34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30" t="s">
+      <c r="G34" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="D35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="30" t="s">
+      <c r="G35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="D36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F36" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="30" t="s">
+      <c r="G36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="D37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F37" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="30" t="s">
+      <c r="G37" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="D38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="30" t="s">
+      <c r="G38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="D39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F39" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="30" t="s">
+      <c r="G39" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="D40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="30" t="s">
+      <c r="G40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="D41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F41" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="30" t="s">
+      <c r="G41" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="35" t="s">
+      <c r="D42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F42" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="30" t="s">
+      <c r="G42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="35" t="s">
+      <c r="D43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="31"/>
+      <c r="G43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="52">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A29:A43"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A24:A38"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:B38"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>

--- a/設計書/プログラムモジュール一覧.xlsx
+++ b/設計書/プログラムモジュール一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97CECB-8607-4F56-A82F-8EA25709D3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1F9E6-75A1-4E94-BB6E-C290A0720256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18D7FEB1-40F1-4A2B-9BC6-0E986448A945}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PM一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PM一覧!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PM一覧!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>共通情報</t>
     <rPh sb="0" eb="2">
@@ -341,10 +341,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>掲示板機能</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>掲示板消去機能</t>
     <rPh sb="0" eb="1">
       <t>ケイジバn</t>
@@ -352,10 +348,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>F3−4</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>掲示板の投稿の削除を行う</t>
     <rPh sb="0" eb="12">
       <t>ケイジバンサ</t>
@@ -396,10 +388,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>F3-3</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>掲示板のカテゴリー絞込み</t>
     <rPh sb="0" eb="3">
       <t>ケイジバ</t>
@@ -1045,6 +1033,70 @@
       <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガチャリクエスト承認機能</t>
+    <rPh sb="8" eb="10">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガチャリクエスト拒否機能</t>
+    <rPh sb="8" eb="10">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F4-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F4-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガチャのリクエストを承認する機能</t>
+    <rPh sb="10" eb="12">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ガチャのリクエストを拒否する機能</t>
+    <rPh sb="10" eb="12">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>掲示板機能</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F3-3</t>
+  </si>
+  <si>
+    <t>F3-5</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,80 +1333,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1672,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6343BE-CA9B-4AB2-BAA2-C8FEF23D0ED7}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1693,47 +1742,47 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="31"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="33"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1742,16 +1791,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="34"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1760,36 +1809,36 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="34"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1818,23 +1867,23 @@
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>108</v>
+      <c r="G9" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
@@ -1842,61 +1891,61 @@
       <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="19"/>
+      <c r="G10" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="19"/>
+      <c r="G11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="19"/>
+      <c r="G12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>28</v>
@@ -1904,19 +1953,19 @@
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="19"/>
+      <c r="G13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="29"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>31</v>
@@ -1924,19 +1973,19 @@
       <c r="F14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="19"/>
+      <c r="G14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>34</v>
@@ -1944,19 +1993,19 @@
       <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="19"/>
+      <c r="G15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>37</v>
@@ -1964,608 +2013,607 @@
       <c r="F16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="19"/>
+      <c r="G16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29"/>
-      <c r="B18" s="23" t="s">
-        <v>39</v>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32"/>
+      <c r="B23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="32"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="32"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="32"/>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="32"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="32"/>
+      <c r="B29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="33"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="F31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29"/>
-      <c r="B23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="G31" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
-      <c r="B25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="30"/>
-      <c r="B27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13" t="s">
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13" t="s">
+      <c r="G33" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13" t="s">
+      <c r="G34" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13" t="s">
+      <c r="G35" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13" t="s">
+      <c r="G36" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="13" t="s">
+      <c r="G37" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F38" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13" t="s">
+      <c r="G38" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13" t="s">
+      <c r="G39" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="D40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13" t="s">
+      <c r="G40" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13" t="s">
+      <c r="G41" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="D42" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="13" t="s">
+      <c r="G42" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="D43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13" t="s">
+      <c r="G43" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="D44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13" t="s">
+      <c r="G44" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="D45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="19"/>
+      <c r="G45" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B29:B43"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A29:A43"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+  <mergeCells count="54">
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="A31:A45"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
@@ -2575,6 +2623,49 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B31:B45"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>

--- a/設計書/プログラムモジュール一覧.xlsx
+++ b/設計書/プログラムモジュール一覧.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1F9E6-75A1-4E94-BB6E-C290A0720256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDE92E-3C21-4654-8A1F-22B97F04C38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18D7FEB1-40F1-4A2B-9BC6-0E986448A945}"/>
   </bookViews>
   <sheets>
-    <sheet name="PM一覧" sheetId="3" r:id="rId1"/>
+    <sheet name="表紙" sheetId="4" r:id="rId1"/>
+    <sheet name="PM一覧" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PM一覧!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PM一覧!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="170">
   <si>
     <t>共通情報</t>
     <rPh sb="0" eb="2">
@@ -154,10 +158,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>書誌情報</t>
     <rPh sb="0" eb="2">
       <t>ショシ</t>
@@ -864,10 +864,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>F5-2</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>チャットの選択を行う機能</t>
     <rPh sb="5" eb="7">
       <t>センタク</t>
@@ -1097,13 +1093,209 @@
   </si>
   <si>
     <t>F3-5</t>
+  </si>
+  <si>
+    <t>ブロック機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F5-2</t>
+  </si>
+  <si>
+    <t>F5-3</t>
+  </si>
+  <si>
+    <t>チャット相手をブロックをする機能</t>
+    <rPh sb="4" eb="6">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>麻生情報ビジネス専門学校</t>
+    <rPh sb="0" eb="2">
+      <t>アソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>情報システム専攻科2年</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センコウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>学校法人　麻生塾</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Cat's</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ＰＭ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ＰＬ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>西野</t>
+    <rPh sb="0" eb="2">
+      <t>ニシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作成･更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プログラムモジュール一覧</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1360,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1189,7 +1450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1286,8 +1547,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,8 +1636,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,9 +1693,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1360,56 +1747,167 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{4D7345E7-E9CE-497D-8B07-0B1144A1BCC6}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{6B7A6170-1268-4543-9DC4-3C6E9EF9A8C3}"/>
+    <cellStyle name="標準_Sheet1" xfId="5" xr:uid="{96DAFE71-7E73-4A05-B14D-F52704101B2C}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="4" xr:uid="{663ECD6A-8E94-4984-A493-29B6A245F5E5}"/>
+    <cellStyle name="標準_システム管理" xfId="3" xr:uid="{3D908488-C6A9-4A9E-A1C4-14C16155E802}"/>
+    <cellStyle name="標準_種別マスタ" xfId="6" xr:uid="{055FD75B-2AF5-40C6-8891-D4462175975A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1720,14 +2218,1624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6343BE-CA9B-4AB2-BAA2-C8FEF23D0ED7}">
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F010F1-171A-4888-B3A1-EFC3F91918DD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.1640625" style="37" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="90" customWidth="1"/>
+    <col min="7" max="32" width="4.1640625" style="37" customWidth="1"/>
+    <col min="33" max="36" width="4" style="37" customWidth="1"/>
+    <col min="37" max="256" width="9" style="37"/>
+    <col min="257" max="288" width="4.1640625" style="37" customWidth="1"/>
+    <col min="289" max="292" width="4" style="37" customWidth="1"/>
+    <col min="293" max="512" width="9" style="37"/>
+    <col min="513" max="544" width="4.1640625" style="37" customWidth="1"/>
+    <col min="545" max="548" width="4" style="37" customWidth="1"/>
+    <col min="549" max="768" width="9" style="37"/>
+    <col min="769" max="800" width="4.1640625" style="37" customWidth="1"/>
+    <col min="801" max="804" width="4" style="37" customWidth="1"/>
+    <col min="805" max="1024" width="9" style="37"/>
+    <col min="1025" max="1056" width="4.1640625" style="37" customWidth="1"/>
+    <col min="1057" max="1060" width="4" style="37" customWidth="1"/>
+    <col min="1061" max="1280" width="9" style="37"/>
+    <col min="1281" max="1312" width="4.1640625" style="37" customWidth="1"/>
+    <col min="1313" max="1316" width="4" style="37" customWidth="1"/>
+    <col min="1317" max="1536" width="9" style="37"/>
+    <col min="1537" max="1568" width="4.1640625" style="37" customWidth="1"/>
+    <col min="1569" max="1572" width="4" style="37" customWidth="1"/>
+    <col min="1573" max="1792" width="9" style="37"/>
+    <col min="1793" max="1824" width="4.1640625" style="37" customWidth="1"/>
+    <col min="1825" max="1828" width="4" style="37" customWidth="1"/>
+    <col min="1829" max="2048" width="9" style="37"/>
+    <col min="2049" max="2080" width="4.1640625" style="37" customWidth="1"/>
+    <col min="2081" max="2084" width="4" style="37" customWidth="1"/>
+    <col min="2085" max="2304" width="9" style="37"/>
+    <col min="2305" max="2336" width="4.1640625" style="37" customWidth="1"/>
+    <col min="2337" max="2340" width="4" style="37" customWidth="1"/>
+    <col min="2341" max="2560" width="9" style="37"/>
+    <col min="2561" max="2592" width="4.1640625" style="37" customWidth="1"/>
+    <col min="2593" max="2596" width="4" style="37" customWidth="1"/>
+    <col min="2597" max="2816" width="9" style="37"/>
+    <col min="2817" max="2848" width="4.1640625" style="37" customWidth="1"/>
+    <col min="2849" max="2852" width="4" style="37" customWidth="1"/>
+    <col min="2853" max="3072" width="9" style="37"/>
+    <col min="3073" max="3104" width="4.1640625" style="37" customWidth="1"/>
+    <col min="3105" max="3108" width="4" style="37" customWidth="1"/>
+    <col min="3109" max="3328" width="9" style="37"/>
+    <col min="3329" max="3360" width="4.1640625" style="37" customWidth="1"/>
+    <col min="3361" max="3364" width="4" style="37" customWidth="1"/>
+    <col min="3365" max="3584" width="9" style="37"/>
+    <col min="3585" max="3616" width="4.1640625" style="37" customWidth="1"/>
+    <col min="3617" max="3620" width="4" style="37" customWidth="1"/>
+    <col min="3621" max="3840" width="9" style="37"/>
+    <col min="3841" max="3872" width="4.1640625" style="37" customWidth="1"/>
+    <col min="3873" max="3876" width="4" style="37" customWidth="1"/>
+    <col min="3877" max="4096" width="9" style="37"/>
+    <col min="4097" max="4128" width="4.1640625" style="37" customWidth="1"/>
+    <col min="4129" max="4132" width="4" style="37" customWidth="1"/>
+    <col min="4133" max="4352" width="9" style="37"/>
+    <col min="4353" max="4384" width="4.1640625" style="37" customWidth="1"/>
+    <col min="4385" max="4388" width="4" style="37" customWidth="1"/>
+    <col min="4389" max="4608" width="9" style="37"/>
+    <col min="4609" max="4640" width="4.1640625" style="37" customWidth="1"/>
+    <col min="4641" max="4644" width="4" style="37" customWidth="1"/>
+    <col min="4645" max="4864" width="9" style="37"/>
+    <col min="4865" max="4896" width="4.1640625" style="37" customWidth="1"/>
+    <col min="4897" max="4900" width="4" style="37" customWidth="1"/>
+    <col min="4901" max="5120" width="9" style="37"/>
+    <col min="5121" max="5152" width="4.1640625" style="37" customWidth="1"/>
+    <col min="5153" max="5156" width="4" style="37" customWidth="1"/>
+    <col min="5157" max="5376" width="9" style="37"/>
+    <col min="5377" max="5408" width="4.1640625" style="37" customWidth="1"/>
+    <col min="5409" max="5412" width="4" style="37" customWidth="1"/>
+    <col min="5413" max="5632" width="9" style="37"/>
+    <col min="5633" max="5664" width="4.1640625" style="37" customWidth="1"/>
+    <col min="5665" max="5668" width="4" style="37" customWidth="1"/>
+    <col min="5669" max="5888" width="9" style="37"/>
+    <col min="5889" max="5920" width="4.1640625" style="37" customWidth="1"/>
+    <col min="5921" max="5924" width="4" style="37" customWidth="1"/>
+    <col min="5925" max="6144" width="9" style="37"/>
+    <col min="6145" max="6176" width="4.1640625" style="37" customWidth="1"/>
+    <col min="6177" max="6180" width="4" style="37" customWidth="1"/>
+    <col min="6181" max="6400" width="9" style="37"/>
+    <col min="6401" max="6432" width="4.1640625" style="37" customWidth="1"/>
+    <col min="6433" max="6436" width="4" style="37" customWidth="1"/>
+    <col min="6437" max="6656" width="9" style="37"/>
+    <col min="6657" max="6688" width="4.1640625" style="37" customWidth="1"/>
+    <col min="6689" max="6692" width="4" style="37" customWidth="1"/>
+    <col min="6693" max="6912" width="9" style="37"/>
+    <col min="6913" max="6944" width="4.1640625" style="37" customWidth="1"/>
+    <col min="6945" max="6948" width="4" style="37" customWidth="1"/>
+    <col min="6949" max="7168" width="9" style="37"/>
+    <col min="7169" max="7200" width="4.1640625" style="37" customWidth="1"/>
+    <col min="7201" max="7204" width="4" style="37" customWidth="1"/>
+    <col min="7205" max="7424" width="9" style="37"/>
+    <col min="7425" max="7456" width="4.1640625" style="37" customWidth="1"/>
+    <col min="7457" max="7460" width="4" style="37" customWidth="1"/>
+    <col min="7461" max="7680" width="9" style="37"/>
+    <col min="7681" max="7712" width="4.1640625" style="37" customWidth="1"/>
+    <col min="7713" max="7716" width="4" style="37" customWidth="1"/>
+    <col min="7717" max="7936" width="9" style="37"/>
+    <col min="7937" max="7968" width="4.1640625" style="37" customWidth="1"/>
+    <col min="7969" max="7972" width="4" style="37" customWidth="1"/>
+    <col min="7973" max="8192" width="9" style="37"/>
+    <col min="8193" max="8224" width="4.1640625" style="37" customWidth="1"/>
+    <col min="8225" max="8228" width="4" style="37" customWidth="1"/>
+    <col min="8229" max="8448" width="9" style="37"/>
+    <col min="8449" max="8480" width="4.1640625" style="37" customWidth="1"/>
+    <col min="8481" max="8484" width="4" style="37" customWidth="1"/>
+    <col min="8485" max="8704" width="9" style="37"/>
+    <col min="8705" max="8736" width="4.1640625" style="37" customWidth="1"/>
+    <col min="8737" max="8740" width="4" style="37" customWidth="1"/>
+    <col min="8741" max="8960" width="9" style="37"/>
+    <col min="8961" max="8992" width="4.1640625" style="37" customWidth="1"/>
+    <col min="8993" max="8996" width="4" style="37" customWidth="1"/>
+    <col min="8997" max="9216" width="9" style="37"/>
+    <col min="9217" max="9248" width="4.1640625" style="37" customWidth="1"/>
+    <col min="9249" max="9252" width="4" style="37" customWidth="1"/>
+    <col min="9253" max="9472" width="9" style="37"/>
+    <col min="9473" max="9504" width="4.1640625" style="37" customWidth="1"/>
+    <col min="9505" max="9508" width="4" style="37" customWidth="1"/>
+    <col min="9509" max="9728" width="9" style="37"/>
+    <col min="9729" max="9760" width="4.1640625" style="37" customWidth="1"/>
+    <col min="9761" max="9764" width="4" style="37" customWidth="1"/>
+    <col min="9765" max="9984" width="9" style="37"/>
+    <col min="9985" max="10016" width="4.1640625" style="37" customWidth="1"/>
+    <col min="10017" max="10020" width="4" style="37" customWidth="1"/>
+    <col min="10021" max="10240" width="9" style="37"/>
+    <col min="10241" max="10272" width="4.1640625" style="37" customWidth="1"/>
+    <col min="10273" max="10276" width="4" style="37" customWidth="1"/>
+    <col min="10277" max="10496" width="9" style="37"/>
+    <col min="10497" max="10528" width="4.1640625" style="37" customWidth="1"/>
+    <col min="10529" max="10532" width="4" style="37" customWidth="1"/>
+    <col min="10533" max="10752" width="9" style="37"/>
+    <col min="10753" max="10784" width="4.1640625" style="37" customWidth="1"/>
+    <col min="10785" max="10788" width="4" style="37" customWidth="1"/>
+    <col min="10789" max="11008" width="9" style="37"/>
+    <col min="11009" max="11040" width="4.1640625" style="37" customWidth="1"/>
+    <col min="11041" max="11044" width="4" style="37" customWidth="1"/>
+    <col min="11045" max="11264" width="9" style="37"/>
+    <col min="11265" max="11296" width="4.1640625" style="37" customWidth="1"/>
+    <col min="11297" max="11300" width="4" style="37" customWidth="1"/>
+    <col min="11301" max="11520" width="9" style="37"/>
+    <col min="11521" max="11552" width="4.1640625" style="37" customWidth="1"/>
+    <col min="11553" max="11556" width="4" style="37" customWidth="1"/>
+    <col min="11557" max="11776" width="9" style="37"/>
+    <col min="11777" max="11808" width="4.1640625" style="37" customWidth="1"/>
+    <col min="11809" max="11812" width="4" style="37" customWidth="1"/>
+    <col min="11813" max="12032" width="9" style="37"/>
+    <col min="12033" max="12064" width="4.1640625" style="37" customWidth="1"/>
+    <col min="12065" max="12068" width="4" style="37" customWidth="1"/>
+    <col min="12069" max="12288" width="9" style="37"/>
+    <col min="12289" max="12320" width="4.1640625" style="37" customWidth="1"/>
+    <col min="12321" max="12324" width="4" style="37" customWidth="1"/>
+    <col min="12325" max="12544" width="9" style="37"/>
+    <col min="12545" max="12576" width="4.1640625" style="37" customWidth="1"/>
+    <col min="12577" max="12580" width="4" style="37" customWidth="1"/>
+    <col min="12581" max="12800" width="9" style="37"/>
+    <col min="12801" max="12832" width="4.1640625" style="37" customWidth="1"/>
+    <col min="12833" max="12836" width="4" style="37" customWidth="1"/>
+    <col min="12837" max="13056" width="9" style="37"/>
+    <col min="13057" max="13088" width="4.1640625" style="37" customWidth="1"/>
+    <col min="13089" max="13092" width="4" style="37" customWidth="1"/>
+    <col min="13093" max="13312" width="9" style="37"/>
+    <col min="13313" max="13344" width="4.1640625" style="37" customWidth="1"/>
+    <col min="13345" max="13348" width="4" style="37" customWidth="1"/>
+    <col min="13349" max="13568" width="9" style="37"/>
+    <col min="13569" max="13600" width="4.1640625" style="37" customWidth="1"/>
+    <col min="13601" max="13604" width="4" style="37" customWidth="1"/>
+    <col min="13605" max="13824" width="9" style="37"/>
+    <col min="13825" max="13856" width="4.1640625" style="37" customWidth="1"/>
+    <col min="13857" max="13860" width="4" style="37" customWidth="1"/>
+    <col min="13861" max="14080" width="9" style="37"/>
+    <col min="14081" max="14112" width="4.1640625" style="37" customWidth="1"/>
+    <col min="14113" max="14116" width="4" style="37" customWidth="1"/>
+    <col min="14117" max="14336" width="9" style="37"/>
+    <col min="14337" max="14368" width="4.1640625" style="37" customWidth="1"/>
+    <col min="14369" max="14372" width="4" style="37" customWidth="1"/>
+    <col min="14373" max="14592" width="9" style="37"/>
+    <col min="14593" max="14624" width="4.1640625" style="37" customWidth="1"/>
+    <col min="14625" max="14628" width="4" style="37" customWidth="1"/>
+    <col min="14629" max="14848" width="9" style="37"/>
+    <col min="14849" max="14880" width="4.1640625" style="37" customWidth="1"/>
+    <col min="14881" max="14884" width="4" style="37" customWidth="1"/>
+    <col min="14885" max="15104" width="9" style="37"/>
+    <col min="15105" max="15136" width="4.1640625" style="37" customWidth="1"/>
+    <col min="15137" max="15140" width="4" style="37" customWidth="1"/>
+    <col min="15141" max="15360" width="9" style="37"/>
+    <col min="15361" max="15392" width="4.1640625" style="37" customWidth="1"/>
+    <col min="15393" max="15396" width="4" style="37" customWidth="1"/>
+    <col min="15397" max="15616" width="9" style="37"/>
+    <col min="15617" max="15648" width="4.1640625" style="37" customWidth="1"/>
+    <col min="15649" max="15652" width="4" style="37" customWidth="1"/>
+    <col min="15653" max="15872" width="9" style="37"/>
+    <col min="15873" max="15904" width="4.1640625" style="37" customWidth="1"/>
+    <col min="15905" max="15908" width="4" style="37" customWidth="1"/>
+    <col min="15909" max="16128" width="9" style="37"/>
+    <col min="16129" max="16160" width="4.1640625" style="37" customWidth="1"/>
+    <col min="16161" max="16164" width="4" style="37" customWidth="1"/>
+    <col min="16165" max="16384" width="9" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+    </row>
+    <row r="2" spans="1:176" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43"/>
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="43"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="43"/>
+      <c r="DH2" s="43"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="43"/>
+      <c r="DK2" s="43"/>
+      <c r="DL2" s="43"/>
+      <c r="DM2" s="43"/>
+      <c r="DN2" s="43"/>
+      <c r="DO2" s="43"/>
+      <c r="DP2" s="43"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="43"/>
+      <c r="DS2" s="43"/>
+      <c r="DT2" s="43"/>
+      <c r="DU2" s="43"/>
+      <c r="DV2" s="43"/>
+      <c r="DW2" s="43"/>
+      <c r="DX2" s="43"/>
+      <c r="DY2" s="43"/>
+      <c r="DZ2" s="43"/>
+      <c r="EA2" s="43"/>
+      <c r="EB2" s="43"/>
+      <c r="EC2" s="43"/>
+      <c r="ED2" s="43"/>
+      <c r="EE2" s="43"/>
+      <c r="EF2" s="43"/>
+      <c r="EG2" s="43"/>
+      <c r="EH2" s="43"/>
+      <c r="EI2" s="43"/>
+      <c r="EJ2" s="43"/>
+      <c r="EK2" s="43"/>
+      <c r="EL2" s="43"/>
+      <c r="EM2" s="43"/>
+      <c r="EN2" s="43"/>
+      <c r="EO2" s="43"/>
+      <c r="EP2" s="43"/>
+      <c r="EQ2" s="43"/>
+      <c r="ER2" s="43"/>
+      <c r="ES2" s="43"/>
+      <c r="ET2" s="43"/>
+      <c r="EU2" s="43"/>
+      <c r="EV2" s="43"/>
+      <c r="EW2" s="43"/>
+      <c r="EX2" s="43"/>
+      <c r="EY2" s="43"/>
+      <c r="EZ2" s="43"/>
+      <c r="FA2" s="43"/>
+      <c r="FB2" s="43"/>
+      <c r="FC2" s="43"/>
+      <c r="FD2" s="43"/>
+      <c r="FE2" s="43"/>
+      <c r="FF2" s="43"/>
+      <c r="FG2" s="43"/>
+      <c r="FH2" s="43"/>
+      <c r="FI2" s="43"/>
+      <c r="FJ2" s="43"/>
+      <c r="FK2" s="43"/>
+      <c r="FL2" s="43"/>
+      <c r="FM2" s="43"/>
+      <c r="FN2" s="43"/>
+      <c r="FO2" s="43"/>
+      <c r="FP2" s="43"/>
+      <c r="FQ2" s="43"/>
+      <c r="FR2" s="43"/>
+      <c r="FS2" s="43"/>
+      <c r="FT2" s="43"/>
+    </row>
+    <row r="3" spans="1:176" ht="28.5" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="47">
+        <v>43714</v>
+      </c>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="42"/>
+    </row>
+    <row r="4" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="42"/>
+    </row>
+    <row r="5" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="Y5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="42"/>
+    </row>
+    <row r="6" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="Y6" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+    </row>
+    <row r="7" spans="1:176" ht="20.25" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AF7" s="42"/>
+    </row>
+    <row r="8" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="42"/>
+    </row>
+    <row r="9" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="42"/>
+    </row>
+    <row r="13" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AF13" s="42"/>
+    </row>
+    <row r="14" spans="1:176" ht="15.75" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AF14" s="42"/>
+    </row>
+    <row r="15" spans="1:176" ht="15" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="42"/>
+    </row>
+    <row r="16" spans="1:176" ht="15" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="42"/>
+    </row>
+    <row r="17" spans="1:32" ht="15" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="42"/>
+    </row>
+    <row r="18" spans="1:32" ht="15" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="42"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+    </row>
+    <row r="20" spans="1:32" ht="15" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+    </row>
+    <row r="21" spans="1:32" s="83" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A21" s="81"/>
+      <c r="B21" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+    </row>
+    <row r="22" spans="1:32" s="83" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+    </row>
+    <row r="23" spans="1:32" s="83" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="81"/>
+      <c r="B23" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="81"/>
+    </row>
+    <row r="24" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="84">
+        <v>43714</v>
+      </c>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="42"/>
+    </row>
+    <row r="25" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="84">
+        <v>43796</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="42"/>
+    </row>
+    <row r="26" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="42"/>
+    </row>
+    <row r="27" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="42"/>
+    </row>
+    <row r="28" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="42"/>
+    </row>
+    <row r="29" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="42"/>
+    </row>
+    <row r="30" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="42"/>
+    </row>
+    <row r="31" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="42"/>
+    </row>
+    <row r="32" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="42"/>
+    </row>
+    <row r="33" spans="1:32" ht="29.25" customHeight="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="42"/>
+    </row>
+    <row r="34" spans="1:32" ht="15" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AE3"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="Z9:AB12"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6343BE-CA9B-4AB2-BAA2-C8FEF23D0ED7}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="3" customWidth="1"/>
@@ -1740,49 +3848,49 @@
     <col min="9" max="16384" width="8.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="31"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1790,831 +3898,889 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="32"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="H5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18"/>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>43796</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31" t="s">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="23" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="23" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="23" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="32"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="32"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="32"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="32"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="32"/>
-      <c r="B23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="32"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="32"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="32"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="32"/>
-      <c r="B27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="32"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="32"/>
-      <c r="B29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="25" t="s">
+      <c r="D32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="25" t="s">
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="12" t="s">
+      <c r="D35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="F35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="G35" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="12" t="s">
+      <c r="D36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="F36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="G36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="12" t="s">
+      <c r="D37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="F37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G37" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="12" t="s">
+      <c r="D38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="F38" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="G38" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="12" t="s">
+      <c r="D39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="F39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="G39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="12" t="s">
+      <c r="D40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="F40" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="G40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="12" t="s">
+      <c r="D41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="F41" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G41" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="12" t="s">
+      <c r="D42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="F42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="G42" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="12" t="s">
+      <c r="D43" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="F43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="35"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="12" t="s">
+      <c r="D44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="F44" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="12" t="s">
+      <c r="D45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="F45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="12" t="s">
+      <c r="D46" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="25"/>
+      <c r="G46" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A10:A30"/>
-    <mergeCell ref="A31:A45"/>
+  <mergeCells count="55">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A10:A31"/>
+    <mergeCell ref="A32:A46"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -2625,47 +4791,10 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B31:B45"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B32:B46"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
